--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -46,69 +46,75 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
+    <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -118,51 +124,42 @@
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -175,21 +172,24 @@
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -202,43 +202,43 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -707,13 +707,13 @@
         <v>56</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>58</v>
@@ -833,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.671875</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>0.5797101449275363</v>
+        <v>0.5738880918220947</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1057,13 @@
         <v>63</v>
       </c>
       <c r="K10">
-        <v>0.5652797704447633</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L10">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>303</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6359223300970874</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K11">
-        <v>0.4937759336099585</v>
+        <v>0.491701244813278</v>
       </c>
       <c r="L11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6181818181818182</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>0.4565573770491803</v>
+        <v>0.4516393442622951</v>
       </c>
       <c r="L12">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M12">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K13">
-        <v>0.3608562691131498</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L13">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>209</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K14">
-        <v>0.3373493975903614</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L14">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5072463768115942</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C15">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K15">
-        <v>0.3174603174603174</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4489795918367347</v>
+        <v>0.5014492753623189</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K17">
-        <v>0.2265625</v>
+        <v>0.2109375</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K18">
-        <v>0.2043010752688172</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,37 +1483,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4259259259259259</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>23</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K19">
-        <v>0.1984126984126984</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K20">
-        <v>0.1888111888111888</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3984375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K21">
-        <v>0.1847389558232932</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3968253968253968</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K22">
-        <v>0.1535087719298246</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L22">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M22">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1683,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3734939759036144</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K23">
-        <v>0.08021390374331551</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3649289099526066</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K24">
-        <v>0.07520891364902507</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1783,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3622047244094488</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,31 +1801,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K25">
-        <v>0.07477243172951886</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L25">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M25">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1423</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1833,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3578947368421053</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,31 +1851,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K26">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3370786516853932</v>
+        <v>0.3515625</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1909,13 +1909,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2821782178217822</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>145</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,13 +1935,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2653061224489796</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1961,13 +1961,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2319587628865979</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1987,13 +1987,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2013,13 +2013,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1949152542372881</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,13 +2039,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1884057971014493</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,25 +2065,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1582278481012658</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>266</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2091,13 +2091,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1571428571428571</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2117,25 +2117,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1560178306092125</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C36">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>568</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2143,25 +2143,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1556195965417868</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C37">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,13 +2169,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1401273885350318</v>
+        <v>0.15</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2195,7 +2195,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1290322580645161</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2221,13 +2221,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1265822784810127</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>276</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2247,13 +2247,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1261682242990654</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>187</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,25 +2273,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1211453744493392</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>399</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2299,13 +2299,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1161048689138577</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,25 +2325,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09315068493150686</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C44">
         <v>34</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>331</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,25 +2351,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.06935123042505593</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>416</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,25 +2377,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.06760563380281689</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>331</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2403,25 +2403,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06754530477759473</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>566</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2429,25 +2429,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.05830164765525982</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>743</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2455,25 +2455,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.03981623277182236</v>
+        <v>0.044529262086514</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E49">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="F49">
-        <v>0.9299999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>627</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
